--- a/500all/speech_level/speeches_CHRG-114hhrg97382.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97382.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Good morning. I convene this hearing of the Subcommittee on Oversight and Investigations. We are here today to discuss a continuing and increasingly expensive problem, waste, fraud, and abuse in the Medicaid program. I guess one way I could put this is, for centuries people have tried to deal with the issue is there life after death, and apparently there is in Medicaid, and we will get to the bottom of that today.    Last year the Medicaid program provided medical services for approximately 60 million people at a cost of $310 billion. But during that same year, the Centers for Medicare and Medicaid Services estimate that the improper payment rate was 6.7 percent, or $17.5 billion. This is an increase of almost one percent, or over three billion, from the previous year. It is a troubling trend, especially as the program continues to expand.    Unfortunately, the Medicaid program is far too accustomed to fraud. In fact, the Government Accountability Office has designated the Medicaid program as a high risk for fraud and abuse since 2003, and it has been the subject of multiple GAO and Department of Health and Human Services Office of Inspector General Reports over the past several years, including a GAO report being highlighted today.    In 2012 the Committee requested GAO identify and analyze indicators of improper and potentially fraudulent payments to Medicaid beneficiaries and providers. In a trustworthy study, another in a longtime examining Medicaid fraud, GAO has reported that CMS needs to take additional actions to improve provider and beneficiary fraud controls. GAO found that thousands and Medicaid beneficiaries and hundreds of providers in just four states: Arizona, Florida, Michigan, and New Jersey, were involved in possible improper or fraudulent payments during fiscal year 2011. For example, almost 200 deceased beneficiaries received at least $9.6 million in Medicaid benefits. About 8,600 beneficiaries received payments by two or more states, totaling at least $18.3 million.    The Social Security numbers for about 199,000 beneficiaries did not match the Social Security Administration databases. About 90 medical providers had their medical license revoked or suspended in the state in which they received Medicaid payments. At least 47 providers had foreign addresses as their location of services, including Canada, China, India, and Saudi Arabia. About 50 providers who received Medicaid payments were excluded from the Federal program for a variety of reasons, including patient abuse, or neglect, fraud, theft, bribery, and tax evasion.    GAO acknowledged that regulations issued in response to the Affordable Care Act may have addressed some of the improper payment indicators found in GAO's analysis. For example, CMS created a tool called the Data Services Hub to help verify beneficiary application information, but questions remain whether this tool has been properly implemented, and if the states have been able to effectively use this tool to combat waste and fraud. In fact, just a few weeks ago, a Reuters report found that more than one in five of the thousands of doctors and other health care providers in the U.S. prohibited from billing Medicare are still able to bill state Medicaid programs.    The report included disturbing stories, such as a Georgia optometrist who claimed he conducted 177 eye exams in one day, yet remained on South Carolina's Medicaid rolls for almost a year after he pleaded guilty in Georgia. In another instance, an Ohio psychiatrist routinely over-reported the time he spent with patients, and even billed for no-show patients. CMS revoked his billing privileges after he was convicted of felony Workers' Compensation fraud, yet he continued to work in the Illinois Medicaid program, getting paid $560,000 for services or prescriptions he wrote after his Medicare provider revocation. Shockingly, on the day he was being sentenced in Columbus, Ohio, he also claimed that he saw 131 group therapy patients at his Illinois practice.    Now, these stories, we know, are unacceptable. Medicaid fraud undermines the integrity of the program, denies our most vulnerable the services they deserve, and waste taxpayers' hard earned dollars. I hope we will hear today about the steps that can be taken to further combat fraud in the Medicaid program. That is what we want to focus on. And GAO has recommended some common sense steps that would reduce fraud, such as issuing guidance to states, better identifying beneficiaries who are deceased, and the availability of automated information through Medicare's enrollment database.    In light of the history of fraud in the Medicaid program, and its growing size, however, will these steps be enough? Will we be here again in another 2 years discussing the same thing? And with the Medicaid program continuing to expand, the Committee is concerned that the opportunity and motivation to defraud the program will only increase.    So I would like to thank our witnesses who are here today. You have the ability to save the taxpayers a massive amount of money. We hope to hear from you today how you plan to do that, and we are grateful for your presence.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400101</t>
   </si>
   <si>
-    <t>Diana DeGette</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you, Mr. Chairman. Good news on a bipartisan basis, we are against waste, fraud, and abuse, as usual, in the Medicaid program, and everyplace else. I have been on this subcommittee now 19 years, and we have had a whole series of hearings over the years. And as you accurately point out, Mr. Chairman, it goes from administration to administration, Medicaid seems to be particularly vulnerable to issues like fraud, and we have to continue our oversight. So when you say will we be here again in 2 years? Probably. We will probably be here in 10 years, because this kind of a problem takes ever vigilance by this Committee.    The GAO report we are talking about today tells us that the Medicaid program, like many other large programs, like Medicare, defense contracts, and private insurance plans, experience thousands of improper, and possibly fraudulent, payments every year. Last year CMS found an estimated improper payment rate of 6.7 percent, which amounted to about $17.5 billion for the Medicaid program in 2014.    Now, as I said, and you said, like many other programs, Medicaid fraud is not unique to this Committee. In our report, which was published in 2003, which was 12 years ago, we said, ``Committee hearings last year revealed that the cost of the Medicaid fraud program could exceed $17 billion every year. This year, 2003, the Committee will examine ways in which states could adopt more rigorous enrollment controls to keep unscrupulous providers out of their programs, and improve their program integrity standards.'' And we had laudable efforts since that time. Truly, $17 billion in 2003, and about $17 billion now, even with the Medicaid expansion, that is not something to be proud about, although I guess we should be glad it doesn't seem to be getting a lot worse. Nonetheless, Congress, and the Administration, and the governors all across the country need to focus on improper payments.    There is something exciting, though, that I think may actually make a major difference going forward. Under the Affordable Care Act, a number of important measures were enacted to prevent or reduce improper payments in the Medicaid and Medicare programs. For example, the ACA provided nearly $350 million in new funds for anti-fraud efforts. It provided new authorities to the Secretary of HHS to help shift from a traditional pay and chase model to a preventative approach, by keeping fraudulent suppliers and providers out of the program before they commit fraud. And now we have in place a host of new and enhanced anti-fraud penalties to deter those attempting to improperly bill Medicaid or Medicare. These are important new tools, and I think they can help safeguard the program. I am looking forward to hearing from CMS and GAO on how these efforts are working, and how they expect to build upon efforts to strengthen Medicaid at both the Federal and State levels.    I think it is important to put this discussion of improper payment rates in context with large scale financing of other public and private sector programs. For example, I can cite endless examples of major defense contractors receiving improper payments from the Pentagon. Last year the Washington Post revealed that one company improperly charged the government more than $100 million for services. DOD alone reported it had made $1.1 billion in improper payments for fiscal year 2011.    Overbilling occurs across all sectors of the government, and we have to figure out why that is happening, and how we can strengthen our financial controls across the government to prevent this kind of overpayment and fraud, and find new ways to protect taxpayers. And so I think the GAO does a really important job, both here, in helping strengthen the Medicaid program, and many other places.    I have a lot of questions about the finding and recommendations, some of which may go beyond the scope of the report. For example, and this is in context of the ACA too, the audit relies on data from fiscal year 2011. As we implement these ACA provisions that have gone into place since that time, I would be interested to know, are they really making a difference on the data in the 3 or 4 years since that time? The other issue we need clarification on is the basis of the four states that were chosen for this audit.    So, as I say, I really want to thank the agencies for coming in and helping us. Anything we can do to strengthen the controls to prevent overpayment and fraud is great with me, because the hard working Americans in all 50 states rely on these Medicaid services, and they also rely on the fact that their tax dollars are going to best serve this country. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. Thank you, Mr. Chairman. This is an important hearing we are having today. Medicaid, a program that is entirely under our jurisdiction in the Energy and Commerce Committee, is a vital program that covers and provides care for some of the nation's most vulnerable populations. This Committee does have exclusive legislative jurisdiction over Medicaid, and it is our responsibility to ensure that the long term sustainability of Medicaid is assured through proper oversight.    Inefficient and misdirected payments within the Medicaid program have substantive budgetary, access, and provider impacts that ultimately affect patients. If states do not have the proper tools available for monitoring enforcement, there can be lasting effects on the nation's Medicaid recipients, and the providers of their care. CMS has reported improper payments well over $17 billion for fiscal year 2014 for the Medicaid program, an increase of nearly $3 billion from the prior year. That is a trend that should concern all of us. Each of those dollars that is spent inappropriately is a dollar not spent on a patient, and is, in fact, a wasted taxpayer dollar.    I do want to point out that the recently passed H.R. 2, that this committee had a great hand in getting started, and shepherding through the legislative process, and ultimately it was signed by the President, but it did have a number of anti-fraud provisions contained within. Most of those pertained to the Medicare system, but I do wonder if some of those examples may not also be extrapolated to the Medicaid system. Specifically, Mr. Chairman, Section 502, preventing wrongful Medicare payments for items and services furnished to incarcerated individuals, individuals not lawfully present, and deceased individuals. That may be something worthy of study that the CMS may want to consider for the Medicaid system as well.    I am also concerned about allowing entities engaging in fraud to continue to receive Federal funds. We want to ensure provider participation in Medicaid, and patients should never be faced with a choice of no care or low quality care from those providers. The Office of Inspector General has the authority to exclude entities that employ deceptive business practices within the Medicaid program. In 2014 Ranking Member DeGette and I looked into the practices of certain dental management service companies within the Medicaid program which not only provide managerial services to dental clinics, but also, in fact, actually own these clinics, and have direct control over the operations and finances of the clinics. We became very concerned because this corporate structure was resulting in failure to meet basic quality and compliance standards.    Unfortunately, many of these practices have continued, despite Federal Government intervention. The Office of Inspector General may initiate a corporate integrity agreement, but these deceptive entities may dissolve under bankruptcy, only to re-emerge under new management. The Office of Inspector General has the authority to exclude individuals and entities that have engaged in fraud and abuse related to Federal health programs, including Medicaid. Following our investigation, we sent a letter to the Office of Inspector General recommending that OIG consider excluding any corporate entity that employs deceptive practices that result in substandard care.    So we are grateful that some action was taken over that, but it is incredibly important that there be a way to exclude someone who is engaged in deceptive practice, and prevent that process of dissolving, and then re-emerging in another corporate form. We must ensure that states have the proper tools available to ensure that tax dollars are never fraudulently wasted in the Medicaid program, and that access for Medicaid beneficiaries is subsequently protected.    Mr. Chairman, I thank you for the recognition, for the time, and I will yield back.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman. For decades Medicaid has been a lifeline for tens of millions of hard working Americans across the country. That is why we must make sure that the resources we devote to this program are administered efficiently and effectively. Every dollar lost to misuse or fraud of our Federal health programs is one less dollar available to fund essential lifesaving medical services for Americans. Cutting down on waste, fraud, and abuse is, and must remain, a priority for CMS, state Medicaid programs, and this Committee.    Some of my colleagues on the other side of the aisle have expressed concerns that expansion of Medicaid will put state budgets in an untenable position and increase fraud, and that is simply not true. Beneficiary access and program integrity efforts are not competing goals. Smart, effective regulation reinforces both goals simultaneously.    In the short time since states have had the option to expand Medicaid, those states have already realized significant qualitative and economic benefits, as uncompensated care rates drop, and states are able to collect more revenue. Expansion makes good economic sense, and good moral sense. For instance, in my home state of New Jersey, projects a nearly $150 million decline in charity care in fiscal year 2016, with savings from the Medicare expansion totaling nearly $3 billion through 2020. Let us also not forget that Medicaid coverage lowers financial barriers to access, increases use of preventative care, and improves health outcomes. Making the program available to more vulnerable Americans is a great achievement, and one that I am very proud of having played a part in.    But, of course, it is now more important than ever that we act as good stewards of Medicaid dollars, and ensure that the benefits of this program are available for generations to come. That is why, when we passed the Affordable Care Act in 2010, we included a number of measures to strengthen program integrity and reduce fraud in the Medicaid program. In 2011, for example, CMS established procedures to screen providers and suppliers based on their risk levels so we can prevent fraud before it occurs. This has changed the traditional pay and chase model towards a preventative approach by keeping fraudulent suppliers out of the program before they can commit fraud.    There are a number of other ACA anti-fraud measures that have impacted the Medicaid program positively over the past few years. These include new and enhanced penalties for fraudulent providers. These new authorities allow the Inspector General to exclude from Medicaid any provider that makes false statements on an application to enroll or participate in the program. The ACA also requires state Medicaid agencies to withhold payments to a provider or supplier pending investigation of a credible allegation of fraud. The law also significantly increased funding to fight Medicare and Medicaid fraud.    So I want to hear today about how all these measures have worked, and about how CMS is implementing regulations to better protect patients and legitimate providers. Although the ACA made significant steps to reduce fraud and abuse in the Medicaid program, I know there is always room for improvement, and I am glad the GAO is here today to share their findings and provide constructive advice about how can we make the Medicaid program even stronger.    But I want to caution against applying GAO's findings too broadly. First, the analysis focused on four states, Arizona, Florida, Michigan, and New Jersey, and its findings are not generalizable across the country. Second, the report looked at data from fiscal year 2011, before many of the ACA anti-fraud provisions went into effect. GAO acknowledges several times in a report that CMS has since made changes to address improper payment issues. Third, I want to make the point that many of the potentially improper payments listed in this report are likely examples of provider fraud, not beneficiary fraud. The GAO report lists examples such as billing under deceased beneficiaries' identities, or billing on behalf of currently incarcerated beneficiaries. Given that these beneficiaries are hardly in a position to defraud the government, I think it is likely that many of these are examples of provider fraud.    So, Mr. Chairman, good program integrity helps to ensure that beneficiaries receive the care they need, so I look forward to hearing from CMS and GAO how these latest efforts are being implemented by the states. I don't know if anybody wants my 30 seconds--otherwise I will yield back. Thank you.</t>
   </si>
   <si>
@@ -103,18 +91,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Bagdoyan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bagdoyan. Chairman Murphy, Ranking Member DeGette, and members of the subcommittee, I am pleased to be here today to discuss results of GAO's recent report on Medicaid beneficiary and provider fraud controls. As you know, and as you mentioned, Mr. Chairman, Medicaid is a significant expenditure for the Federal Government and the states, with combined outlays of about $516 billion in fiscal year 2014, involving millions of beneficiaries and providers.    These numbers, as members mentioned, are all expected to grow as a result of the expansion of Medicaid under the Affordable Care Act. A program of this scope and scale is inherently susceptible to error, including improper payments, as well as fraudulent activity. In fact, as mentioned again, CMS reported an estimated improper payment rate of 6.7 percent, or $17.5 billion, for Medicaid in fiscal year 2014, compared to 5.8 percent, or $14.4 billion respectively, in FY 2013. Also, earlier this year we reported that Medicaid remains on GAO's high risk list in part because of concerns about the adequacy of fiscal oversight of the program, including improper payments.    With this backdrop, I will now discuss our report's key findings. Overall we found thousands of Medicaid beneficiaries and hundreds of providers were involved in potentially improper or fraudulent payments during fiscal year 2011, the most recent year for which reliable and comparable data were available in the four selected states we reviewed, namely Arizona, Florida, Michigan, and New Jersey. These states accounted for about 9.2 million beneficiaries, and about 13 percent of all fiscal year 2011 Medicaid payments.    More specifically, examples of potentially improper or fraudulent payments include about 8,600 beneficiaries had payments made on their behalf concurrently by two or more of the selected states, totaling at least $18.3 million. The identities of roughly 200 deceased beneficiaries received about $9.6 million in Medicaid benefits subsequent to the beneficiary's death. Some 3,600 individuals received about $4.2 million worth of Medicaid services while incarcerated in State prison facilities. 90 providers had suspended or revoked licenses in at least one state in which they received payment. Associated Medicaid claims totaled at least $2.8 million.    To its credit, as, again, mentioned in opening statements, CMS has taken some regulatory steps to make the Medicaid enrollment process more rigorous and data-driven. However, gaps in beneficiary eligibility, verification guidance, and data sharing persist. For example, in 2013, CMS required states to use electronic data maintained by the Federal Government in its data services hub to verify beneficiary eligibility. According to CMS, the hub can verify key application information, including state residency, incarceration status, and immigration status.    However, CMS regulations do not require states to review Medicaid beneficiary files for deceased individuals more frequently than annually, nor specify whether states should reconsider using the more comprehensive Social Security Administration's full death master file in conjunction with state reported death data when doing so. As a result, states may not be able to detect individuals that have moved to, and later died, in another state, or prevent the payment of potentially fraudulent benefits to individuals using their identities. Accordingly, additional guidance from CMS to states might further enhance program integrity efforts beyond using the hub.    In closing, our findings underscore that, as Medicaid's numbers grow as expected, both the Federal Government and the states need to maximize their efforts to promote program integrity by preventing and reducing potential for improper payments and fraud. Our recommendations to CMS, which the agency has accepted, are designed to enhance its toolbox to this effect, help narrow the windows of opportunity for improper payments and fraud, and provide reasonable assurance that Medicaid eligibility controls are functioning as intended.    Mr. Chairman, members of the subcommittee, this concludes my statement. I look forward to your questions. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you. Dr. Agrawal, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Agrawal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Agrawal. Thank you. Chairman Murphy, Ranking Member DeGette, and members of the Subcommittee, thank you for the invitation to discuss CMS's efforts to strengthen Medicaid. Enhancing program integrity is a top priority for the Administration, and an agency-wide effort at CMS. We share the Subcommittee's commitment to protecting beneficiaries and ensuring taxpayer dollars are spent on legitimate items and services, both of which are at the forefront of our program integrity mission.    I would like to make three major points in my testimony today. First, Medicaid program integrity is a shared state/Federal responsibility, and I feel strongly that states and the Federal Government share the goal that the Medicaid program be as secure as possible to ensure beneficiaries are protected, and the right payments are being made. Second, we have made important progress in addressing beneficiary eligibility and provider enrollment issues through advanced data systems and improved collaboration. And third, it is clear that more work remains, that we can build on our accomplishments with improved guidance, building more capabilities, and enhanced oversight.    States and the Federal Government share mutual obligations and accountability for the integrity of the Medicaid program, and the development, application, and improvement of program safeguards necessary to ensure proper and appropriate use of both Federal and state dollars. This Federal/state partnership is central to the success of the Medicaid program, and it depends on clear lines of responsibility and shared goals. Although the Federal Government establishes general guidelines for the program, states design, implement, and administer their own Medicaid programs. Medicaid is currently undergoing significant changes as CMS and states implement reforms to modernize and strengthen the program and its services.    While focused on implementation of the Affordable Care Act, CMS has been working closely with states to implement new, more modern delivery system and payment reforms. In the last few years CMS and states have made important progress in improving the systems and processes that determine a beneficiary's eligibility for Medicaid, and that ensure only legitimate providers enroll in and build a program. We have made great strides. The error rate in beneficiary eligibility, for example, has been cut in half since 2011. We recognize, however, that more remains to be done, and continue to work collaboratively with states to further improve Medicaid program integrity.    A critical component to preventing waste, abuse, and fraud is ensuring that only legitimate providers have the ability to bill Medicaid in the first place. While states bear the primary responsibility for provider screening and enrollment for Medicaid, CMS is engaging in new efforts to work with states to make sure that only legitimate providers are enrolling in the Medicaid program. The ACA required CMS to implement risk-based screening of providers and suppliers who want to participate in Medicaid. This enhanced screening requires certain categories of providers and suppliers that have historically posed a higher risk of fraud to undergo greater scrutiny prior to their enrollment or re-validation in Medicare, Medicaid, or CHIP.    To enroll providers more efficiently, CMS has provided states with direct access to Medicare's enrollment database, the Provider Enrollment Chain and Ownership System, or PECOS, and in response to input from states, began providing access to monthly PECOS data extracts that states could use to systematically compare state enrollment records against available PECOS information.    CMS also provides guidance, education through the Medicaid Integrity Institute, which has reached over 4,200 state employees on enrollment and other topics, and oversight through state program integrity reviews. Additionally, the ACA, and accompanying Federal regulations, have enhanced beneficiary eligibility safeguards by establishing a modernized, data-driven approach to verification of financial and non-financial information needed to determine Medicaid eligibility. States now rely on available electronic data sources, including the Federal data hub and PARIS system, to confirm information included on the application and promote program integrity, while minimizing the amount of paper documentation that consumers need to provide.    CMS has also developed its most recent comprehensive Medicaid integrity plan, in collaboration with our partners, including the National Association of Medicaid Directors, and is working to implement this plan. This work includes providing Medicare data to states for program integrity purposes, expanding support and training of state program integrity staff in vulnerable areas, such as program integrity oversight of managed care and evolving integrated care models, and facilitating development of state capacity and access to cost-effective analytics technology.    The past several years have brought numerous gains in combating fraud, waste, and abuse in the Medicaid program, but more work clearly remains. Today the eligibility determination process for beneficiaries and provider screening efforts are significantly more modern and digital than ever before. We thank the GAO for highlighting critical issues in the Medicaid program, and look forward to continuing to work with states and other stakeholders to establish new initiatives and expand upon our existing programs to fight fraud, reduce improper payments, and improve oversight. Thank you, and I am happy to answer any questions.</t>
   </si>
   <si>
@@ -322,9 +304,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Two quick questions. One, the CMS has raised its proper payment rate target from fiscal year 2015 to 6.7 percent, from the 5.6 target rate in 2014. Is that a good internal control practice, to raise the target rate?</t>
   </si>
   <si>
@@ -445,9 +424,6 @@
     <t>412543</t>
   </si>
   <si>
-    <t>Joseph P. Kennedy III</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kennedy. Thank you very much, Mr. Chairman. Thank you to our witnesses for coming today, and for your testimony at an important hearing. I want to touch base a little bit on the improper payment rate, and put that in context. Medicaid program provides about 70 million low income and disabled Americans with vital health care services, and we must do everything we can to strengthen it and protect it. As you have heard from my colleagues here this morning, no one, Democrat or Republican, is in favor of fraud. We clearly want to make sure this program is as lean as it possibly can be, and that the people that need help and need the services are getting them.    So, to that end, Mr. Bagdoyan, I would like to begin with you. Since its peak of 9.4 percent in 2010, the improper payments rate for the Medicaid program has steadily decreased, reaching a low of 5.8 percent in 2013, or $14.4 billion. That number rose to 6.7 percent in 2014, or $17.5 billion. Is that right?</t>
   </si>
   <si>
@@ -529,9 +505,6 @@
     <t>412427</t>
   </si>
   <si>
-    <t>Larry Bucshon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bucshon. Thank you, Mr. Chairman. First of all, I was a practicing physician for 15 years, as I had mentioned to our witnesses beforehand. I have taken care of all patients, regardless of their ability to pay, which is what we do in health care. But I just want to highlight that all is not rosy with Medicaid. And I know this hearing is about waste, and fraud, and abuse, but I am from Indiana, and our medical practice routinely wrote off hundreds of thousands of dollars from a neighboring state's Medicaid program in billings every year because they ran out of money before the end of the year, and this pre-dates the ACA.    The other thing is that the program within our own state has been financially challenged historically with a significant Medicare provider cut within the last 10 years just to stay afloat. That said, Medicaid is a critical program that we have to have for our citizens. What can we do? Well, Indiana has expanded our Medicaid program using an innovate plan called Healthy Indiana Plan 2.0, and I am hopeful that this state-based plan, as well as state-based plans around the country, can be used as a proving ground how to move forward on our Medicaid program.    Some facts about the Medicaid expansion that are not surprising to me, but seem to be surprising to those who wanted to expand traditional Medicaid, is that ER visits are up, in some cases dramatically up, in multiple studies across the country. And the hospitals are very happy, but we have made no progress because this is the highest cost form of medical care available in the country. And so, having a card in your pocket, but having no access to primary care physicians or others outside of the emergency room is not progress. And the encouragement to seek preventative care, as was mentioned earlier, may be technically true, but functionally not accurate because you can't get preventative care if no one takes your coverage.    States that have expanded Medicaid are already starting to look for ways to pay for the program once the Federal money for the expansion goes down to 90 percent, and my concern is reimbursement cuts will be the way that will happen. And what does that do? Further limits access to the citizens in their states. And if anyone doesn't think that sometime in the future that the Federal Government will look for a way to pay for other things by further cutting that expansion money to the states on their Medicaid program, then you are not following the government very well.    That said, I do have a couple of questions. And, again this is a very important hearing. I saw that we limited the study, Mr. Bagdoyan, to the four states. Why did we pick these states, and did the GAO try to include other states in your study?</t>
   </si>
   <si>
@@ -565,9 +538,6 @@
     <t>412221</t>
   </si>
   <si>
-    <t>Yvette D. Clarke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clarke. Thank you, Mr. Chairman, and I thank the Ranking Member, thank our witnesses for their testimony here today. I am glad we have had the opportunity today to talk about the Medicaid program, and how many people it helps across the country. As of February 2015, over 70 million people were enrolled in Medicaid. The number of enrollees will continue to rise, as 30 states have expanded Medicaid, and even more states are considering doing so. We know that fraud and improper payments have long been a reality of the Medicaid system, but with the passage of the Affordable Care Act in 2010, we have made significant steps to strengthen the Medicare, Medicaid, and CHIP programs by reducing waste, fraud, and abuse.    Dr. Agrawal, I would like to ask you about the Affordable Care Act anti-fraud measures, and how they have strengthened the Medicaid program. In your testimony you noted that the Secretary of HHS can temporarily pause enrollment for new Medicaid providers and suppliers if she determines certain geographic areas face a high risk of fraud. Dr. Agrawal, how does the Secretary make that determination?</t>
   </si>
   <si>
@@ -619,9 +589,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman, and thanks to our witnesses for being here. I am a former United States Attorney, and so have worked with Medicaid fraud control units run by our states' Attorney General, and also with HHS OIG agents, and my question is really to both of you about the staffing, and the number of people that we dedicate--so while you are very focused on prevention, I understand, but deterrence is also a wonderful tool, and I am curious about the effectiveness of our deterrence. Because if we don't prosecute those, and--while certainly I know U.S. Attorneys' offices and Attorney Generals are prosecuting all across the country, I don't believe they have the resources that they need. These are very complex investigations. The last thing they want to do is prosecute someone wrongfully, and these are very complicated cases.    So my question is to both of you about whether it is our health care providers, or the beneficiaries who are receiving improper payments, what is your thoughts on how we are doing with respect to prosecutions?</t>
   </si>
   <si>
@@ -667,9 +634,6 @@
     <t>412195</t>
   </si>
   <si>
-    <t>Kathy Castor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Castor. Well, thank you, Mr. Chairman, for calling this hearing, and thank you to the witnesses. Thank you for your attention to program integrity, and rooting out fraud in Medicaid. In Medicaid, every dollar counts, because these are dollars that go, in large part, to children and their health care needs, and our older neighbors in nursing homes, and other hard working Americans.    Now, CMS has issued several new regulations and guidance just in the past month, and I would like to ask you about them today. Dr. Agrawal, as I understand it, under the proposed regulation for Medicaid managed care organizations, managed care providers would be subject to the same screening requirements as providers for the fee-for-service program, is that correct?</t>
   </si>
   <si>
@@ -727,9 +691,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman. Doctor, can you walk me through the process of what happens when a state medical fraud unit identifies a provider that is committing fraud within the system?</t>
   </si>
   <si>
@@ -829,9 +790,6 @@
     <t>400653</t>
   </si>
   <si>
-    <t>Al Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. Mr. Bagdoyan, Medicaid is a large program, as is Medicare. Would it be fair to say that as long as these programs existed, there have always been at least some improper payments, some people gaming the system?</t>
   </si>
   <si>
@@ -871,9 +829,6 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. I come from the private sector. I am a Lean Six Sigma guy. I have brought Lean Six Sigma into a large municipal government. I think you both know where I am going. It is not a good place. This is the most disturbing hearing I have attended in 2 \\1/2\\ years. I hear you saying that making 67,000 errors per million opportunities is worth a gold star. Six Sigma says you make 3.4 errors per million. 3.4, not 67,000.    I will be using today's hearing in my stump speeches, in my town halls for a very long time. It is everything wrong with government. That you are setting a standard of making 67,000 mistakes for every million times you try to do something, and you are going to reward and congratulate yourselves, this is disbelief, absolute, utter disbelief of what is wrong with government, to have you two individuals, with smiles on your face, and congratulating each other over trying to achieve 67,000 errors per million opportunities. My mind is blown. I know if 1,000 airplanes take off, and 67 of them crash, that is a 6.7 percent error rate. I don't think we are going to be flying on our airplanes if 67 airplanes crash for every thousand that take off.    In the manufacturing world today, whether it was Toyota many years ago, whether it was General Electric, or some things I have done, we set a goal of Six Sigma, 3.4 errors per million. It is achieved every single day in the private sector. And here we are in government, talking about 67,000 errors per million opportunities, and how this is progress? This is disgusting. It is a waste of taxpayer dollars. It is setting the bar so low that, yes, I guess, we had a goal of 5.6, we hit 6.7, so next year let us make it 6.7. Well, if it is 7.2, then the next year it is going to be 7.2, and we are going to have a hearing, and you guys are going to self-congratulate each other on achieving something like that? I don't even know that you can't defend the indefensible.    So, while I am carrying on here a little bit, I know you can't defend the indefensible, but maybe I will let you try. And I will also say there is a sign in my office, in God we trust, all others bring data. I am a data guy, if you can't already tell. That means you need good data. And now I am reading that the PERM program, the Payment Error Rate Measurement Program, at best, it is using a rolling sampling of 17 states, the data is not consistent, it is not gathered in a consistent way. I have one word for that data, and that is garbage. Garbage, complete garbage.    So, I don't know, Mr. Bagdoyan, do you have anything to say?</t>
   </si>
   <si>
@@ -919,9 +874,6 @@
     <t>412211</t>
   </si>
   <si>
-    <t>John A. Yarmuth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yarmuth. Thank you, Mr. Chairman, and thanks to the witnesses. I want to get some clarification on this PERM rate, because I am not sure I understand it. If you characterize these as errors, are these errors that CMS made, or are they errors that--just some kind of incorrect payment was made? So you would have had, for instance, a bill come in that was coded incorrectly, wrong procedure, whatever it is, and--would that have been counted as an error?</t>
   </si>
   <si>
@@ -968,9 +920,6 @@
   </si>
   <si>
     <t>400032</t>
-  </si>
-  <si>
-    <t>Marsha Blackburn</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Blackburn. Thank you, Mr. Chairman, and I thank you all for being here. And, as Mr. Collins just said, this is really a frustrating hearing in so many ways for us. In 2003, shortly after, we did a field hearing in Tennessee, looking at the TennCare program, which was the test case for Hillary Clinton's health care, and implemented in Tennessee, and a lot of Obamacare has been built on it. And one of the focuses of that hearing was the waste, fraud, and abuse, and the fact that CMS just couldn't seem to get its act together when it came to dealing with waste, fraud, and abuse.    And when you isolated our state and looked at it, the payment error rate, and the eligibility issues with verification of who was and was not eligible, and then the providers, so to see this continue on, and your willingness to accept a failing grade in addressing this is just beyond us. Because you are not getting better, you are getting worse, and then you change the grading system to accommodate that you are not improving.    And, Dr. Agrawal, if I am understanding this right, you moved from 5.6 to 6.7 in that rate, and this was done by committee, so there is no one person in charge of this debacle, is that correct?</t>
@@ -1543,11 +1492,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1569,11 +1516,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1593,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1621,11 +1564,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1645,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1673,11 +1612,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1697,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1725,11 +1660,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1751,11 +1684,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1775,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1803,11 +1732,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1827,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1855,11 +1780,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1879,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1907,11 +1828,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1931,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1959,11 +1876,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1983,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2011,11 +1924,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2035,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2063,11 +1972,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2087,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2115,11 +2020,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2139,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2167,11 +2068,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2191,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2219,11 +2116,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2243,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2271,11 +2164,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2295,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2323,11 +2212,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2347,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2373,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2399,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2425,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2451,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2477,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2503,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2529,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2555,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2581,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2607,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2633,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2659,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2685,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2711,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2737,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2763,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2789,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2815,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2841,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2867,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2893,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2919,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2945,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2971,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2997,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3023,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3049,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3075,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3101,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3127,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3153,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3179,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3205,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3231,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3257,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3283,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3309,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3335,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3361,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3387,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3413,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3439,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3465,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3491,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3517,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3543,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3569,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
-      </c>
-      <c r="G80" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3595,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3621,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
-      </c>
-      <c r="G82" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3647,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3673,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3699,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3727,11 +3508,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3751,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G87" t="s">
-        <v>102</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3777,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
-      </c>
-      <c r="G88" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3803,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>101</v>
-      </c>
-      <c r="G89" t="s">
-        <v>102</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3829,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
-      </c>
-      <c r="G90" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3855,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>101</v>
-      </c>
-      <c r="G91" t="s">
-        <v>102</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3881,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
-      </c>
-      <c r="G92" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3907,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>101</v>
-      </c>
-      <c r="G93" t="s">
+        <v>95</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
         <v>102</v>
-      </c>
-      <c r="H93" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3933,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3959,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>101</v>
-      </c>
-      <c r="G95" t="s">
-        <v>102</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3985,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4011,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>101</v>
-      </c>
-      <c r="G97" t="s">
-        <v>102</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4037,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
-      </c>
-      <c r="G98" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4063,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>101</v>
-      </c>
-      <c r="G99" t="s">
-        <v>102</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4091,11 +3844,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4115,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4141,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
-      </c>
-      <c r="G102" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4167,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4193,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G104" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4219,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4245,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>28</v>
-      </c>
-      <c r="G106" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4271,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4297,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>28</v>
-      </c>
-      <c r="G108" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4323,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4349,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G110" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4375,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4401,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4427,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4455,11 +4180,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4479,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4505,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
-      </c>
-      <c r="G116" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4531,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4557,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4583,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4609,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
-      </c>
-      <c r="G120" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4635,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4661,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G122" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4687,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4713,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
-      </c>
-      <c r="G124" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4739,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4767,11 +4468,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4791,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>142</v>
-      </c>
-      <c r="G127" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4817,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
-      </c>
-      <c r="G128" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4843,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>142</v>
-      </c>
-      <c r="G129" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4869,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
-      </c>
-      <c r="G130" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4895,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>142</v>
-      </c>
-      <c r="G131" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4921,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>28</v>
-      </c>
-      <c r="G132" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4947,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>142</v>
-      </c>
-      <c r="G133" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4973,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
-      </c>
-      <c r="G134" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4999,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>142</v>
-      </c>
-      <c r="G135" t="s">
+        <v>135</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
         <v>143</v>
-      </c>
-      <c r="H135" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5025,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
-      </c>
-      <c r="G136" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5051,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>142</v>
-      </c>
-      <c r="G137" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5077,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
-      </c>
-      <c r="G138" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5103,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>142</v>
-      </c>
-      <c r="G139" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5129,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
-      </c>
-      <c r="G140" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5155,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>142</v>
-      </c>
-      <c r="G141" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5181,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
-      </c>
-      <c r="G142" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5207,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>142</v>
-      </c>
-      <c r="G143" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5233,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
-      </c>
-      <c r="G144" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5259,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>142</v>
-      </c>
-      <c r="G145" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5285,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>28</v>
-      </c>
-      <c r="G146" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5311,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>142</v>
-      </c>
-      <c r="G147" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5337,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
-      </c>
-      <c r="G148" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5363,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>142</v>
-      </c>
-      <c r="G149" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5389,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>28</v>
-      </c>
-      <c r="G150" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5415,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>142</v>
-      </c>
-      <c r="G151" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5441,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
-      </c>
-      <c r="G152" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5467,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>142</v>
-      </c>
-      <c r="G153" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5493,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
-      </c>
-      <c r="G154" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5521,11 +5164,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5545,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>170</v>
-      </c>
-      <c r="G156" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5571,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>28</v>
-      </c>
-      <c r="G157" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5597,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>170</v>
-      </c>
-      <c r="G158" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5623,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>28</v>
-      </c>
-      <c r="G159" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5649,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>170</v>
-      </c>
-      <c r="G160" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5675,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>28</v>
-      </c>
-      <c r="G161" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5701,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>170</v>
-      </c>
-      <c r="G162" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5727,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>28</v>
-      </c>
-      <c r="G163" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5753,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>170</v>
-      </c>
-      <c r="G164" t="s">
+        <v>162</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
         <v>171</v>
-      </c>
-      <c r="H164" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5781,11 +5404,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5805,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>182</v>
-      </c>
-      <c r="G166" t="s">
-        <v>183</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5831,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>28</v>
-      </c>
-      <c r="G167" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5857,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>182</v>
-      </c>
-      <c r="G168" t="s">
-        <v>183</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5883,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>28</v>
-      </c>
-      <c r="G169" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5909,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>182</v>
-      </c>
-      <c r="G170" t="s">
-        <v>183</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5935,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>28</v>
-      </c>
-      <c r="G171" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5961,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>182</v>
-      </c>
-      <c r="G172" t="s">
-        <v>183</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5987,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>28</v>
-      </c>
-      <c r="G173" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6013,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
+        <v>173</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
         <v>182</v>
-      </c>
-      <c r="G174" t="s">
-        <v>183</v>
-      </c>
-      <c r="H174" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6039,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>28</v>
-      </c>
-      <c r="G175" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6065,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>182</v>
-      </c>
-      <c r="G176" t="s">
-        <v>183</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6091,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>28</v>
-      </c>
-      <c r="G177" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6117,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>182</v>
-      </c>
-      <c r="G178" t="s">
-        <v>183</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6143,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>28</v>
-      </c>
-      <c r="G179" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6169,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>182</v>
-      </c>
-      <c r="G180" t="s">
-        <v>183</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6197,11 +5788,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6221,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>200</v>
-      </c>
-      <c r="G182" t="s">
-        <v>201</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6247,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>28</v>
-      </c>
-      <c r="G183" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6273,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>200</v>
-      </c>
-      <c r="G184" t="s">
-        <v>201</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6299,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>28</v>
-      </c>
-      <c r="G185" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6325,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>200</v>
-      </c>
-      <c r="G186" t="s">
-        <v>201</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6351,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>28</v>
-      </c>
-      <c r="G187" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6377,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>200</v>
-      </c>
-      <c r="G188" t="s">
-        <v>201</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6403,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>28</v>
-      </c>
-      <c r="G189" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6429,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>200</v>
-      </c>
-      <c r="G190" t="s">
-        <v>201</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6455,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>28</v>
-      </c>
-      <c r="G191" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6481,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>200</v>
-      </c>
-      <c r="G192" t="s">
+        <v>190</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
         <v>201</v>
-      </c>
-      <c r="H192" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6507,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>28</v>
-      </c>
-      <c r="G193" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6533,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>200</v>
-      </c>
-      <c r="G194" t="s">
-        <v>201</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6561,11 +6124,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6585,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>216</v>
-      </c>
-      <c r="G196" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6611,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>28</v>
-      </c>
-      <c r="G197" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6637,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>216</v>
-      </c>
-      <c r="G198" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6663,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>28</v>
-      </c>
-      <c r="G199" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6689,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>216</v>
-      </c>
-      <c r="G200" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6715,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>28</v>
-      </c>
-      <c r="G201" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6741,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>216</v>
-      </c>
-      <c r="G202" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6767,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>28</v>
-      </c>
-      <c r="G203" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6793,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>216</v>
-      </c>
-      <c r="G204" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6819,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>28</v>
-      </c>
-      <c r="G205" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6845,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>216</v>
-      </c>
-      <c r="G206" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6871,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>28</v>
-      </c>
-      <c r="G207" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6897,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
+        <v>205</v>
+      </c>
+      <c r="G208" t="s"/>
+      <c r="H208" t="s">
         <v>216</v>
-      </c>
-      <c r="G208" t="s">
-        <v>217</v>
-      </c>
-      <c r="H208" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6923,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>28</v>
-      </c>
-      <c r="G209" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6949,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>216</v>
-      </c>
-      <c r="G210" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6975,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>28</v>
-      </c>
-      <c r="G211" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7001,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>216</v>
-      </c>
-      <c r="G212" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7027,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>28</v>
-      </c>
-      <c r="G213" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7053,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>216</v>
-      </c>
-      <c r="G214" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7081,11 +6604,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7105,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>236</v>
-      </c>
-      <c r="G216" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7131,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>28</v>
-      </c>
-      <c r="G217" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7157,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>236</v>
-      </c>
-      <c r="G218" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7183,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>28</v>
-      </c>
-      <c r="G219" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7209,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>236</v>
-      </c>
-      <c r="G220" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7235,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>28</v>
-      </c>
-      <c r="G221" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7261,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>236</v>
-      </c>
-      <c r="G222" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7287,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>28</v>
-      </c>
-      <c r="G223" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7313,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>236</v>
-      </c>
-      <c r="G224" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7339,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>28</v>
-      </c>
-      <c r="G225" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7365,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>236</v>
-      </c>
-      <c r="G226" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7391,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>28</v>
-      </c>
-      <c r="G227" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7417,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>236</v>
-      </c>
-      <c r="G228" t="s">
+        <v>224</v>
+      </c>
+      <c r="G228" t="s"/>
+      <c r="H228" t="s">
         <v>237</v>
-      </c>
-      <c r="H228" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7443,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>28</v>
-      </c>
-      <c r="G229" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7469,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>236</v>
-      </c>
-      <c r="G230" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7495,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>28</v>
-      </c>
-      <c r="G231" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7521,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>236</v>
-      </c>
-      <c r="G232" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7547,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>28</v>
-      </c>
-      <c r="G233" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7573,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>236</v>
-      </c>
-      <c r="G234" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7599,13 +7082,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>28</v>
-      </c>
-      <c r="G235" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7625,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>236</v>
-      </c>
-      <c r="G236" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7651,13 +7130,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>28</v>
-      </c>
-      <c r="G237" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7677,13 +7154,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>236</v>
-      </c>
-      <c r="G238" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7703,13 +7178,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>28</v>
-      </c>
-      <c r="G239" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7729,13 +7202,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>236</v>
-      </c>
-      <c r="G240" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7755,13 +7226,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>28</v>
-      </c>
-      <c r="G241" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7781,13 +7250,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>236</v>
-      </c>
-      <c r="G242" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7807,13 +7274,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>28</v>
-      </c>
-      <c r="G243" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7833,13 +7298,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>236</v>
-      </c>
-      <c r="G244" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7859,13 +7322,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>28</v>
-      </c>
-      <c r="G245" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7885,13 +7346,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>236</v>
-      </c>
-      <c r="G246" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7913,11 +7372,9 @@
       <c r="F247" t="s">
         <v>11</v>
       </c>
-      <c r="G247" t="s">
-        <v>12</v>
-      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7937,13 +7394,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>270</v>
-      </c>
-      <c r="G248" t="s">
-        <v>271</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7963,13 +7418,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>28</v>
-      </c>
-      <c r="G249" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7989,13 +7442,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>270</v>
-      </c>
-      <c r="G250" t="s">
-        <v>271</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8015,13 +7466,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>28</v>
-      </c>
-      <c r="G251" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8041,13 +7490,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>270</v>
-      </c>
-      <c r="G252" t="s">
-        <v>271</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8067,13 +7514,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>28</v>
-      </c>
-      <c r="G253" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8093,13 +7538,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>270</v>
-      </c>
-      <c r="G254" t="s">
-        <v>271</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8119,13 +7562,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>28</v>
-      </c>
-      <c r="G255" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8145,13 +7586,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>270</v>
-      </c>
-      <c r="G256" t="s">
-        <v>271</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8171,13 +7610,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>28</v>
-      </c>
-      <c r="G257" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8197,13 +7634,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>270</v>
-      </c>
-      <c r="G258" t="s">
-        <v>271</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8225,11 +7660,9 @@
       <c r="F259" t="s">
         <v>11</v>
       </c>
-      <c r="G259" t="s">
-        <v>12</v>
-      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8249,13 +7682,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>284</v>
-      </c>
-      <c r="G260" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8275,13 +7706,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>28</v>
-      </c>
-      <c r="G261" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8301,13 +7730,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>284</v>
-      </c>
-      <c r="G262" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8327,13 +7754,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>28</v>
-      </c>
-      <c r="G263" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8353,13 +7778,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>284</v>
-      </c>
-      <c r="G264" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8379,13 +7802,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>28</v>
-      </c>
-      <c r="G265" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8405,13 +7826,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>284</v>
-      </c>
-      <c r="G266" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8431,13 +7850,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>28</v>
-      </c>
-      <c r="G267" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8457,13 +7874,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>284</v>
-      </c>
-      <c r="G268" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8485,11 +7900,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>12</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8509,13 +7922,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>28</v>
-      </c>
-      <c r="G270" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8537,11 +7948,9 @@
       <c r="F271" t="s">
         <v>11</v>
       </c>
-      <c r="G271" t="s">
-        <v>12</v>
-      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8561,13 +7970,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>28</v>
-      </c>
-      <c r="G272" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8589,11 +7996,9 @@
       <c r="F273" t="s">
         <v>11</v>
       </c>
-      <c r="G273" t="s">
-        <v>12</v>
-      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8613,13 +8018,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>300</v>
-      </c>
-      <c r="G274" t="s">
-        <v>301</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8639,13 +8042,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>28</v>
-      </c>
-      <c r="G275" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8665,13 +8066,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>300</v>
-      </c>
-      <c r="G276" t="s">
-        <v>301</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8691,13 +8090,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>28</v>
-      </c>
-      <c r="G277" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8717,13 +8114,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>300</v>
-      </c>
-      <c r="G278" t="s">
-        <v>301</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8743,13 +8138,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>28</v>
-      </c>
-      <c r="G279" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8769,13 +8162,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>300</v>
-      </c>
-      <c r="G280" t="s">
-        <v>301</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8795,13 +8186,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>28</v>
-      </c>
-      <c r="G281" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8821,13 +8210,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>300</v>
-      </c>
-      <c r="G282" t="s">
-        <v>301</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8847,13 +8234,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>28</v>
-      </c>
-      <c r="G283" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8873,13 +8258,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>300</v>
-      </c>
-      <c r="G284" t="s">
-        <v>301</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8899,13 +8282,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>28</v>
-      </c>
-      <c r="G285" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8925,13 +8306,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>300</v>
-      </c>
-      <c r="G286" t="s">
-        <v>301</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8951,13 +8330,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>28</v>
-      </c>
-      <c r="G287" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8977,13 +8354,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>300</v>
-      </c>
-      <c r="G288" t="s">
-        <v>301</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9003,13 +8378,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>28</v>
-      </c>
-      <c r="G289" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9029,13 +8402,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>300</v>
-      </c>
-      <c r="G290" t="s">
-        <v>301</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9057,11 +8428,9 @@
       <c r="F291" t="s">
         <v>11</v>
       </c>
-      <c r="G291" t="s">
-        <v>12</v>
-      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9081,13 +8450,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>317</v>
-      </c>
-      <c r="G292" t="s">
-        <v>318</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9107,13 +8474,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>28</v>
-      </c>
-      <c r="G293" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9133,13 +8498,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>317</v>
-      </c>
-      <c r="G294" t="s">
-        <v>318</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9159,13 +8522,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>28</v>
-      </c>
-      <c r="G295" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9185,13 +8546,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>317</v>
-      </c>
-      <c r="G296" t="s">
-        <v>318</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9211,13 +8570,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>28</v>
-      </c>
-      <c r="G297" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9237,13 +8594,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>317</v>
-      </c>
-      <c r="G298" t="s">
-        <v>318</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9263,13 +8618,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>28</v>
-      </c>
-      <c r="G299" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9289,13 +8642,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>317</v>
-      </c>
-      <c r="G300" t="s">
-        <v>318</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9315,13 +8666,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>28</v>
-      </c>
-      <c r="G301" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9341,13 +8690,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>317</v>
-      </c>
-      <c r="G302" t="s">
-        <v>318</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9367,13 +8714,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>28</v>
-      </c>
-      <c r="G303" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9393,13 +8738,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>317</v>
-      </c>
-      <c r="G304" t="s">
-        <v>318</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9421,11 +8764,9 @@
       <c r="F305" t="s">
         <v>11</v>
       </c>
-      <c r="G305" t="s">
-        <v>12</v>
-      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9445,13 +8786,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>15</v>
-      </c>
-      <c r="G306" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9473,11 +8812,9 @@
       <c r="F307" t="s">
         <v>11</v>
       </c>
-      <c r="G307" t="s">
-        <v>12</v>
-      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9497,13 +8834,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>15</v>
-      </c>
-      <c r="G308" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9523,13 +8858,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>28</v>
-      </c>
-      <c r="G309" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9549,13 +8882,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>15</v>
-      </c>
-      <c r="G310" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9575,13 +8906,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>28</v>
-      </c>
-      <c r="G311" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9601,13 +8930,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>15</v>
-      </c>
-      <c r="G312" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9627,13 +8954,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>28</v>
-      </c>
-      <c r="G313" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9653,13 +8978,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>15</v>
-      </c>
-      <c r="G314" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9679,13 +9002,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>28</v>
-      </c>
-      <c r="G315" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9705,13 +9026,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>15</v>
-      </c>
-      <c r="G316" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9731,13 +9050,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>28</v>
-      </c>
-      <c r="G317" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9757,13 +9074,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>15</v>
-      </c>
-      <c r="G318" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9783,13 +9098,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>28</v>
-      </c>
-      <c r="G319" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9809,13 +9122,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>15</v>
-      </c>
-      <c r="G320" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9835,13 +9146,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>28</v>
-      </c>
-      <c r="G321" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9861,13 +9170,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>15</v>
-      </c>
-      <c r="G322" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9887,13 +9194,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>28</v>
-      </c>
-      <c r="G323" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9913,13 +9218,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>15</v>
-      </c>
-      <c r="G324" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9941,11 +9244,9 @@
       <c r="F325" t="s">
         <v>11</v>
       </c>
-      <c r="G325" t="s">
-        <v>12</v>
-      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9965,13 +9266,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>19</v>
-      </c>
-      <c r="G326" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9991,13 +9290,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>28</v>
-      </c>
-      <c r="G327" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10017,13 +9314,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>19</v>
-      </c>
-      <c r="G328" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10043,13 +9338,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>28</v>
-      </c>
-      <c r="G329" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10069,13 +9362,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>19</v>
-      </c>
-      <c r="G330" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10095,13 +9386,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>28</v>
-      </c>
-      <c r="G331" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10121,13 +9410,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>19</v>
-      </c>
-      <c r="G332" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10147,13 +9434,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>28</v>
-      </c>
-      <c r="G333" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10173,13 +9458,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>19</v>
-      </c>
-      <c r="G334" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10199,13 +9482,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>28</v>
-      </c>
-      <c r="G335" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10225,13 +9506,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>19</v>
-      </c>
-      <c r="G336" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10251,13 +9530,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>28</v>
-      </c>
-      <c r="G337" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10277,13 +9554,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>19</v>
-      </c>
-      <c r="G338" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10303,13 +9578,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>28</v>
-      </c>
-      <c r="G339" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10329,13 +9602,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>19</v>
-      </c>
-      <c r="G340" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10355,13 +9626,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>28</v>
-      </c>
-      <c r="G341" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10381,13 +9650,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>19</v>
-      </c>
-      <c r="G342" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10407,13 +9674,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>28</v>
-      </c>
-      <c r="G343" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10433,13 +9698,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>19</v>
-      </c>
-      <c r="G344" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10459,13 +9722,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>28</v>
-      </c>
-      <c r="G345" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10485,13 +9746,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>19</v>
-      </c>
-      <c r="G346" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10511,13 +9770,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>28</v>
-      </c>
-      <c r="G347" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10537,13 +9794,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>19</v>
-      </c>
-      <c r="G348" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10563,13 +9818,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>28</v>
-      </c>
-      <c r="G349" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10589,13 +9842,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>19</v>
-      </c>
-      <c r="G350" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10615,13 +9866,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>28</v>
-      </c>
-      <c r="G351" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10641,13 +9890,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>19</v>
-      </c>
-      <c r="G352" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10669,11 +9916,9 @@
       <c r="F353" t="s">
         <v>11</v>
       </c>
-      <c r="G353" t="s">
-        <v>12</v>
-      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
